--- a/Outputs/Correlation/corr_matrix_curated.xlsx
+++ b/Outputs/Correlation/corr_matrix_curated.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">-0.678040787982344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7287030688564</t>
+    <t xml:space="preserve">0.728703068856399</t>
   </si>
   <si>
     <t xml:space="preserve">0.614334845451467</t>
@@ -113,16 +113,16 @@
     <t xml:space="preserve">0.800894370284561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801550307762652</t>
+    <t xml:space="preserve">0.801550307762651</t>
   </si>
   <si>
     <t xml:space="preserve">0.887219725801351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726267965318368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76875488249825</t>
+    <t xml:space="preserve">0.726267965318367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.768754882498249</t>
   </si>
   <si>
     <t xml:space="preserve">0.81638805270846</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">0.872447267736199</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.483171501626273</t>
+    <t xml:space="preserve">-0.483171501626274</t>
   </si>
   <si>
     <t xml:space="preserve">-0.555832318708876</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">0.449684816901696</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.434878632487846</t>
+    <t xml:space="preserve">-0.434878632487845</t>
   </si>
   <si>
     <t xml:space="preserve">0.743469966468844</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">0.668019205989795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660918410709944</t>
+    <t xml:space="preserve">0.660918410709945</t>
   </si>
   <si>
     <t xml:space="preserve">0.678404930208189</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">0.670716365547044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792733670372653</t>
+    <t xml:space="preserve">0.792733670372654</t>
   </si>
   <si>
     <t xml:space="preserve">0.768163534380953</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">0.817670727131261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.67407092133517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596602425461891</t>
+    <t xml:space="preserve">0.674070921335171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596602425461892</t>
   </si>
   <si>
     <t xml:space="preserve">0.515488880503674</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">0.707610914725761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547437127415702</t>
+    <t xml:space="preserve">0.547437127415703</t>
   </si>
   <si>
     <t xml:space="preserve">0.600080825413016</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">0.532406779230991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553672565917951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51462136379943</t>
+    <t xml:space="preserve">0.553672565917952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.514621363799429</t>
   </si>
   <si>
     <t xml:space="preserve">0.413652906403125</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">-0.284957246017774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461812265601123</t>
+    <t xml:space="preserve">0.461812265601124</t>
   </si>
   <si>
     <t xml:space="preserve">-0.546407951857671</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">-0.278795755041686</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.52820922585585</t>
+    <t xml:space="preserve">-0.528209225855849</t>
   </si>
   <si>
     <t xml:space="preserve">-0.466972443267212</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.582164790539655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726600438096778</t>
+    <t xml:space="preserve">0.726600438096779</t>
   </si>
   <si>
     <t xml:space="preserve">0.702038463951648</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">0.712822768170737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835380517289914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720329866411791</t>
+    <t xml:space="preserve">0.835380517289913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72032986641179</t>
   </si>
   <si>
     <t xml:space="preserve">0.770856562711929</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">0.50625447758296</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.390498015074009</t>
+    <t xml:space="preserve">-0.39049801507401</t>
   </si>
   <si>
     <t xml:space="preserve">0.810240023206648</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">0.723593333633985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741384537648933</t>
+    <t xml:space="preserve">0.741384537648934</t>
   </si>
   <si>
     <t xml:space="preserve">0.968617208778721</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">0.770047177404204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.862382693570165</t>
+    <t xml:space="preserve">0.862382693570164</t>
   </si>
   <si>
     <t xml:space="preserve">0.938067971743091</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">0.847691045422418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610709897338116</t>
+    <t xml:space="preserve">0.610709897338115</t>
   </si>
   <si>
     <t xml:space="preserve">0.693943126422423</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.6754411569553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732300438899737</t>
+    <t xml:space="preserve">0.732300438899736</t>
   </si>
   <si>
     <t xml:space="preserve">0.319120408619837</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">0.788956442979269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737481038803014</t>
+    <t xml:space="preserve">0.737481038803015</t>
   </si>
   <si>
     <t xml:space="preserve">0.805905331920394</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">0.302176374598377</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.284223088042525</t>
+    <t xml:space="preserve">-0.284223088042526</t>
   </si>
   <si>
     <t xml:space="preserve">0.804808548565719</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">0.969573617404751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.760276723101366</t>
+    <t xml:space="preserve">0.760276723101367</t>
   </si>
   <si>
     <t xml:space="preserve">0.75225436639727</t>

--- a/Outputs/Correlation/corr_matrix_curated.xlsx
+++ b/Outputs/Correlation/corr_matrix_curated.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Histidine</t>
   </si>
   <si>
-    <t xml:space="preserve">Kynurenine</t>
+    <t xml:space="preserve">Kynurenine*</t>
   </si>
   <si>
     <t xml:space="preserve">LTD4</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">Lysine</t>
   </si>
   <si>
-    <t xml:space="preserve">Oleate</t>
+    <t xml:space="preserve">Oleate*</t>
   </si>
   <si>
     <t xml:space="preserve">PAPS</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">α-Ketoisocaproate</t>
   </si>
   <si>
-    <t xml:space="preserve">γ-Linolenate</t>
+    <t xml:space="preserve">γ-Linolenate*</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Outputs/Correlation/corr_matrix_curated.xlsx
+++ b/Outputs/Correlation/corr_matrix_curated.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">-0.678040787982344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.728703068856399</t>
+    <t xml:space="preserve">0.7287030688564</t>
   </si>
   <si>
     <t xml:space="preserve">0.614334845451467</t>
@@ -113,16 +113,16 @@
     <t xml:space="preserve">0.800894370284561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801550307762651</t>
+    <t xml:space="preserve">0.801550307762652</t>
   </si>
   <si>
     <t xml:space="preserve">0.887219725801351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726267965318367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.768754882498249</t>
+    <t xml:space="preserve">0.726267965318368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76875488249825</t>
   </si>
   <si>
     <t xml:space="preserve">0.81638805270846</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">0.872447267736199</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.483171501626274</t>
+    <t xml:space="preserve">-0.483171501626273</t>
   </si>
   <si>
     <t xml:space="preserve">-0.555832318708876</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">0.449684816901696</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.434878632487845</t>
+    <t xml:space="preserve">-0.434878632487846</t>
   </si>
   <si>
     <t xml:space="preserve">0.743469966468844</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">0.668019205989795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.660918410709945</t>
+    <t xml:space="preserve">0.660918410709944</t>
   </si>
   <si>
     <t xml:space="preserve">0.678404930208189</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">0.670716365547044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792733670372654</t>
+    <t xml:space="preserve">0.792733670372653</t>
   </si>
   <si>
     <t xml:space="preserve">0.768163534380953</t>
@@ -221,10 +221,10 @@
     <t xml:space="preserve">0.817670727131261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.674070921335171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596602425461892</t>
+    <t xml:space="preserve">0.67407092133517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596602425461891</t>
   </si>
   <si>
     <t xml:space="preserve">0.515488880503674</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">0.707610914725761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.547437127415703</t>
+    <t xml:space="preserve">0.547437127415702</t>
   </si>
   <si>
     <t xml:space="preserve">0.600080825413016</t>
@@ -290,10 +290,10 @@
     <t xml:space="preserve">0.532406779230991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.553672565917952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.514621363799429</t>
+    <t xml:space="preserve">0.553672565917951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51462136379943</t>
   </si>
   <si>
     <t xml:space="preserve">0.413652906403125</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">-0.284957246017774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.461812265601124</t>
+    <t xml:space="preserve">0.461812265601123</t>
   </si>
   <si>
     <t xml:space="preserve">-0.546407951857671</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">-0.278795755041686</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.528209225855849</t>
+    <t xml:space="preserve">-0.52820922585585</t>
   </si>
   <si>
     <t xml:space="preserve">-0.466972443267212</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.582164790539655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.726600438096779</t>
+    <t xml:space="preserve">0.726600438096778</t>
   </si>
   <si>
     <t xml:space="preserve">0.702038463951648</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">0.712822768170737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835380517289913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72032986641179</t>
+    <t xml:space="preserve">0.835380517289914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720329866411791</t>
   </si>
   <si>
     <t xml:space="preserve">0.770856562711929</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">0.50625447758296</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.39049801507401</t>
+    <t xml:space="preserve">-0.390498015074009</t>
   </si>
   <si>
     <t xml:space="preserve">0.810240023206648</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">0.723593333633985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.741384537648934</t>
+    <t xml:space="preserve">0.741384537648933</t>
   </si>
   <si>
     <t xml:space="preserve">0.968617208778721</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">0.770047177404204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.862382693570164</t>
+    <t xml:space="preserve">0.862382693570165</t>
   </si>
   <si>
     <t xml:space="preserve">0.938067971743091</t>
@@ -455,7 +455,7 @@
     <t xml:space="preserve">0.847691045422418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.610709897338115</t>
+    <t xml:space="preserve">0.610709897338116</t>
   </si>
   <si>
     <t xml:space="preserve">0.693943126422423</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">0.6754411569553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.732300438899736</t>
+    <t xml:space="preserve">0.732300438899737</t>
   </si>
   <si>
     <t xml:space="preserve">0.319120408619837</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">0.788956442979269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737481038803015</t>
+    <t xml:space="preserve">0.737481038803014</t>
   </si>
   <si>
     <t xml:space="preserve">0.805905331920394</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">0.302176374598377</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.284223088042526</t>
+    <t xml:space="preserve">-0.284223088042525</t>
   </si>
   <si>
     <t xml:space="preserve">0.804808548565719</t>
@@ -542,7 +542,7 @@
     <t xml:space="preserve">0.969573617404751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.760276723101367</t>
+    <t xml:space="preserve">0.760276723101366</t>
   </si>
   <si>
     <t xml:space="preserve">0.75225436639727</t>

--- a/Outputs/Correlation/corr_matrix_curated.xlsx
+++ b/Outputs/Correlation/corr_matrix_curated.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t xml:space="preserve">Metabolite</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">Butanoylcarnitine</t>
   </si>
   <si>
+    <t xml:space="preserve">Citrulline</t>
+  </si>
+  <si>
     <t xml:space="preserve">GMP</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t xml:space="preserve">0.7287030688564</t>
   </si>
   <si>
+    <t xml:space="preserve">0.653116350456043</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.614334845451467</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
     <t xml:space="preserve">-0.555832318708876</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.44265097105271</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.47930203243246</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
     <t xml:space="preserve">0.743469966468844</t>
   </si>
   <si>
+    <t xml:space="preserve">0.43916201309194</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.577857415510295</t>
   </si>
   <si>
@@ -218,6 +230,9 @@
     <t xml:space="preserve">0.524244347293827</t>
   </si>
   <si>
+    <t xml:space="preserve">0.407512704135382</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.817670727131261</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
     <t xml:space="preserve">0.497582884064345</t>
   </si>
   <si>
+    <t xml:space="preserve">0.463773811927553</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.532406779230991</t>
   </si>
   <si>
@@ -326,6 +344,9 @@
     <t xml:space="preserve">-0.546407951857671</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.64183683445287</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.278795755041686</t>
   </si>
   <si>
@@ -356,6 +377,9 @@
     <t xml:space="preserve">-0.662493806651226</t>
   </si>
   <si>
+    <t xml:space="preserve">0.584120247245154</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.582164790539655</t>
   </si>
   <si>
@@ -390,6 +414,42 @@
   </si>
   <si>
     <t xml:space="preserve">0.810240023206648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367415919563696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595516740658538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46418128882194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.637699928644124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57255533062315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.545181274816376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596303110798917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507858769282504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.568857333461582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.306918312929064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.284564581050678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.553094074473245</t>
   </si>
   <si>
     <t xml:space="preserve">0.675747330458242</t>
@@ -980,70 +1040,76 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -1051,64 +1117,67 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="V3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -1116,64 +1185,67 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1181,64 +1253,67 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="V5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1246,64 +1321,67 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>23</v>
+      </c>
+      <c r="V6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1311,64 +1389,67 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="S7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="T7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="U7" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="V7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1376,64 +1457,67 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="T8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>113</v>
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1441,64 +1525,67 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="S9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="T9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="U9" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="V9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1506,64 +1593,67 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="R10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="S10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="T10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="V10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1571,64 +1661,67 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q11" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="R11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="S11" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="T11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="U11" t="s">
-        <v>146</v>
+        <v>155</v>
+      </c>
+      <c r="V11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12">
@@ -1636,64 +1729,67 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Q12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="R12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="S12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="T12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="U12" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="V12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13">
@@ -1701,64 +1797,67 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M13" t="s">
-        <v>21</v>
-      </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="Q13" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="R13" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="S13" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="T13" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="U13" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="V13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14">
@@ -1766,64 +1865,67 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="R14" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="S14" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="T14" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="U14" t="s">
-        <v>169</v>
+        <v>23</v>
+      </c>
+      <c r="V14" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -1831,64 +1933,67 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>149</v>
-      </c>
-      <c r="M15" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" t="s">
-        <v>163</v>
-      </c>
-      <c r="O15" t="s">
-        <v>21</v>
-      </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q15" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="R15" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="S15" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="T15" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="U15" t="s">
-        <v>175</v>
+        <v>188</v>
+      </c>
+      <c r="V15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -1896,64 +2001,67 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>150</v>
-      </c>
-      <c r="M16" t="s">
-        <v>158</v>
-      </c>
-      <c r="N16" t="s">
-        <v>164</v>
-      </c>
-      <c r="O16" t="s">
-        <v>170</v>
-      </c>
-      <c r="P16" t="s">
-        <v>21</v>
-      </c>
       <c r="Q16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="R16" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="S16" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="T16" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="U16" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="V16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17">
@@ -1961,64 +2069,67 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>184</v>
+      </c>
+      <c r="P17" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" t="s">
-        <v>159</v>
-      </c>
-      <c r="N17" t="s">
-        <v>165</v>
-      </c>
-      <c r="O17" t="s">
-        <v>171</v>
-      </c>
-      <c r="P17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>21</v>
-      </c>
       <c r="R17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="S17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="T17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s">
-        <v>184</v>
+        <v>199</v>
+      </c>
+      <c r="V17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -2026,64 +2137,67 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="s">
+        <v>171</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" t="s">
-        <v>152</v>
-      </c>
-      <c r="M18" t="s">
-        <v>160</v>
-      </c>
-      <c r="N18" t="s">
-        <v>166</v>
-      </c>
-      <c r="O18" t="s">
-        <v>172</v>
-      </c>
-      <c r="P18" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>181</v>
-      </c>
-      <c r="R18" t="s">
-        <v>21</v>
-      </c>
       <c r="S18" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="T18" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="U18" t="s">
-        <v>187</v>
+        <v>203</v>
+      </c>
+      <c r="V18" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19">
@@ -2091,64 +2205,67 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>186</v>
+      </c>
+      <c r="P19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>197</v>
+      </c>
+      <c r="R19" t="s">
+        <v>201</v>
+      </c>
+      <c r="S19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" t="s">
-        <v>153</v>
-      </c>
-      <c r="M19" t="s">
-        <v>161</v>
-      </c>
-      <c r="N19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O19" t="s">
-        <v>173</v>
-      </c>
-      <c r="P19" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>182</v>
-      </c>
-      <c r="R19" t="s">
-        <v>185</v>
-      </c>
-      <c r="S19" t="s">
-        <v>21</v>
-      </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="V19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20">
@@ -2156,64 +2273,67 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s">
+        <v>173</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>187</v>
+      </c>
+      <c r="P20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" t="s">
+        <v>202</v>
+      </c>
+      <c r="S20" t="s">
+        <v>205</v>
+      </c>
+      <c r="T20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" t="s">
-        <v>145</v>
-      </c>
-      <c r="L20" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" t="s">
-        <v>168</v>
-      </c>
-      <c r="O20" t="s">
-        <v>174</v>
-      </c>
-      <c r="P20" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>183</v>
-      </c>
-      <c r="R20" t="s">
-        <v>186</v>
-      </c>
-      <c r="S20" t="s">
-        <v>188</v>
-      </c>
-      <c r="T20" t="s">
-        <v>21</v>
-      </c>
       <c r="U20" t="s">
-        <v>190</v>
+        <v>208</v>
+      </c>
+      <c r="V20" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -2221,64 +2341,135 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="s">
+        <v>174</v>
+      </c>
+      <c r="N21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" t="s">
+        <v>188</v>
+      </c>
+      <c r="P21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>199</v>
+      </c>
+      <c r="R21" t="s">
+        <v>203</v>
+      </c>
+      <c r="S21" t="s">
+        <v>206</v>
+      </c>
+      <c r="T21" t="s">
+        <v>208</v>
+      </c>
+      <c r="U21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" t="s">
-        <v>125</v>
-      </c>
-      <c r="J21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" t="s">
-        <v>155</v>
-      </c>
-      <c r="M21" t="s">
-        <v>162</v>
-      </c>
-      <c r="N21" t="s">
-        <v>169</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="V21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="s">
         <v>175</v>
       </c>
-      <c r="P21" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>184</v>
-      </c>
-      <c r="R21" t="s">
-        <v>187</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
         <v>189</v>
       </c>
-      <c r="T21" t="s">
-        <v>190</v>
-      </c>
-      <c r="U21" t="s">
-        <v>21</v>
+      <c r="P22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>200</v>
+      </c>
+      <c r="R22" t="s">
+        <v>204</v>
+      </c>
+      <c r="S22" t="s">
+        <v>207</v>
+      </c>
+      <c r="T22" t="s">
+        <v>209</v>
+      </c>
+      <c r="U22" t="s">
+        <v>210</v>
+      </c>
+      <c r="V22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
